--- a/DataFiles_Excel/MultiAgencyRecipientTreeMap/RecipientsMultiAgency508table.xlsx
+++ b/DataFiles_Excel/MultiAgencyRecipientTreeMap/RecipientsMultiAgency508table.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jim.ide\Desktop\annual-report-html2excel\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Engineering Projects\Annual Report\2016-html2excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="44">
   <si>
     <t>HHS Multi Agency Recipients</t>
   </si>
@@ -30,6 +30,12 @@
     <t>Recipients receiving awards from 10 or more agencies The table shows recipient award dollars by agency and the percent change from FY 2015.</t>
   </si>
   <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Recipient</t>
+  </si>
+  <si>
     <t>FY 2015 Award Dollars</t>
   </si>
   <si>
@@ -37,9 +43,6 @@
   </si>
   <si>
     <t>% Change 2016 Dollars</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>CURATORS OF THE UNIVERSITY OF MISSOURI - Subtotal</t>
@@ -157,7 +160,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,8 +296,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -644,24 +662,24 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1019,17 +1037,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="3" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
@@ -1037,7 +1054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1065,13 +1082,17 @@
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4">
         <v>49192325</v>
@@ -1084,11 +1105,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4">
         <v>612225083</v>
@@ -1101,11 +1120,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="4">
         <v>87144359</v>
@@ -1117,12 +1134,10 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="4">
         <v>396248523</v>
@@ -1134,12 +1149,10 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="11" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4">
         <v>623807045</v>
@@ -1151,12 +1164,10 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="12" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4">
         <v>111731746</v>
@@ -1169,11 +1180,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="4">
         <v>481307819</v>
@@ -1185,12 +1194,10 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="14" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4">
         <v>407224362</v>
@@ -1203,11 +1210,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4">
         <v>143921134</v>
@@ -1219,12 +1224,10 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="4">
         <v>510290231</v>
@@ -1236,12 +1239,10 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>6</v>
-      </c>
+    <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="4">
         <v>287944527</v>
@@ -1253,12 +1254,12 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4">
         <v>299409</v>
@@ -1272,10 +1273,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4">
         <v>1200000</v>
@@ -1287,12 +1288,12 @@
         <v>-0.39</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="4">
         <v>1433173</v>
@@ -1304,12 +1305,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="4">
         <v>301340</v>
@@ -1321,12 +1322,12 @@
         <v>2.7309999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
@@ -1338,12 +1339,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="4">
         <v>247258</v>
@@ -1357,10 +1358,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="4">
         <v>838678</v>
@@ -1372,12 +1373,12 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="4">
         <v>1560347</v>
@@ -1391,10 +1392,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" s="4">
         <v>396000</v>
@@ -1408,10 +1409,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27" s="4">
         <v>983592</v>
@@ -1423,12 +1424,12 @@
         <v>-0.95899999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C28" s="4">
         <v>963644</v>
@@ -1440,12 +1441,12 @@
         <v>-0.39100000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" s="4">
         <v>1778248</v>
@@ -1457,12 +1458,12 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" s="4">
         <v>586186</v>
@@ -1476,10 +1477,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="4">
         <v>3881234</v>
@@ -1491,12 +1492,12 @@
         <v>-0.621</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32" s="4">
         <v>545919</v>
@@ -1510,10 +1511,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
@@ -1527,10 +1528,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="C34" s="4">
         <v>8777763</v>
@@ -1542,12 +1543,12 @@
         <v>-0.48199999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" s="4">
         <v>3731145</v>
@@ -1559,12 +1560,12 @@
         <v>-0.28499999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C36" s="4">
         <v>1320735</v>
@@ -1578,10 +1579,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37" s="4">
         <v>5073607</v>
@@ -1595,10 +1596,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C38" s="4">
         <v>928307</v>
@@ -1610,12 +1611,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C39" s="4">
         <v>908761</v>
@@ -1627,12 +1628,12 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C40" s="4">
         <v>3064837</v>
@@ -1644,12 +1645,12 @@
         <v>0.314</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
@@ -1663,10 +1664,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C42" s="4">
         <v>9289200</v>
@@ -1678,12 +1679,12 @@
         <v>-0.39400000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C43" s="4">
         <v>6674847</v>
@@ -1697,10 +1698,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C44" s="4">
         <v>564119</v>
@@ -1714,10 +1715,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C45" s="4">
         <v>4520046</v>
@@ -1729,12 +1730,12 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C46" s="4">
         <v>5054430</v>
@@ -1746,12 +1747,12 @@
         <v>-0.32900000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C47" s="4">
         <v>1130506</v>
@@ -1765,10 +1766,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48" s="4">
         <v>1440000</v>
@@ -1780,12 +1781,12 @@
         <v>2.1869999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C49" s="4">
         <v>275000</v>
@@ -1799,10 +1800,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50" s="4">
         <v>44402974</v>
@@ -1816,10 +1817,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C51" s="4">
         <v>1913791</v>
@@ -1831,12 +1832,12 @@
         <v>-0.111</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C52" s="4">
         <v>3747205</v>
@@ -1848,12 +1849,12 @@
         <v>-0.28199999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C53" s="4">
         <v>28949541</v>
@@ -1865,12 +1866,12 @@
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C54" s="4">
         <v>8799843</v>
@@ -1884,10 +1885,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C55" s="4">
         <v>9207507</v>
@@ -1899,12 +1900,12 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C56" s="4">
         <v>8897386</v>
@@ -1918,10 +1919,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C57" s="4">
         <v>5370772</v>
@@ -1935,10 +1936,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C58" s="4">
         <v>31835181</v>
@@ -1950,12 +1951,12 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C59" s="4">
         <v>2111017</v>
@@ -1967,12 +1968,12 @@
         <v>0.27700000000000002</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C60" s="4">
         <v>3812439</v>
@@ -1986,10 +1987,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C61" s="4">
         <v>3097730</v>
@@ -2003,10 +2004,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C62" s="4">
         <v>677941</v>
@@ -2018,12 +2019,12 @@
         <v>-0.20699999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
@@ -2035,12 +2036,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C64" s="4">
         <v>3535059</v>
@@ -2052,12 +2053,12 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C65" s="4">
         <v>700307</v>
@@ -2071,10 +2072,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C66" s="4">
         <v>3678619</v>
@@ -2086,12 +2087,12 @@
         <v>-0.26300000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C67" s="4">
         <v>1684598</v>
@@ -2105,10 +2106,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C68" s="4">
         <v>5479501</v>
@@ -2120,12 +2121,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C69" s="4">
         <v>997863</v>
@@ -2137,12 +2138,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C70" s="4">
         <v>20800</v>
@@ -2156,10 +2157,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C71" s="4">
         <v>1703365</v>
@@ -2173,10 +2174,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C72" s="4">
         <v>250000</v>
@@ -2188,12 +2189,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C73" s="4">
         <v>1413028</v>
@@ -2205,12 +2206,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C74" s="4">
         <v>3368214</v>
@@ -2222,12 +2223,12 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C75" s="4">
         <v>1119433</v>
@@ -2241,10 +2242,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C76" s="4">
         <v>861876</v>
@@ -2256,12 +2257,12 @@
         <v>0.32100000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C77" s="4">
         <v>490943</v>
@@ -2275,10 +2276,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C78" s="4">
         <v>450000</v>
@@ -2292,10 +2293,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C79" s="4">
         <v>49880</v>
@@ -2307,12 +2308,12 @@
         <v>7.5140000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C80" s="4">
         <v>261385</v>
@@ -2324,12 +2325,12 @@
         <v>-0.45600000000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C81" s="4">
         <v>2241170</v>
@@ -2343,10 +2344,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C82" s="4">
         <v>8091945</v>
@@ -2360,10 +2361,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C83" s="4">
         <v>5817789</v>
@@ -2375,12 +2376,12 @@
         <v>0.35899999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C84" s="4">
         <v>8700132</v>
@@ -2392,12 +2393,12 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C85" s="4">
         <v>20501772</v>
@@ -2409,12 +2410,12 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C86" s="4">
         <v>7048556</v>
@@ -2428,10 +2429,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C87" s="4">
         <v>6452804</v>
@@ -2443,12 +2444,12 @@
         <v>-0.70299999999999996</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C88" s="4">
         <v>11595192</v>
@@ -2462,10 +2463,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C89" s="4">
         <v>8061373</v>
@@ -2479,10 +2480,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C90" s="4">
         <v>34737177</v>
@@ -2494,12 +2495,12 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C91" s="4">
         <v>5026261</v>
@@ -2513,10 +2514,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C92" s="4">
         <v>198682</v>
@@ -2528,12 +2529,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C93" s="4">
         <v>198682</v>
@@ -2545,12 +2546,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C94" s="4">
         <v>36817445</v>
@@ -2564,10 +2565,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C95" s="4">
         <v>543352864</v>
@@ -2581,10 +2582,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C96" s="4">
         <v>74774684</v>
@@ -2596,12 +2597,12 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C97" s="4">
         <v>370579074</v>
@@ -2613,12 +2614,12 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C98" s="4">
         <v>559404587</v>
@@ -2630,12 +2631,12 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C99" s="4">
         <v>92546032</v>
@@ -2649,10 +2650,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C100" s="4">
         <v>447936579</v>
@@ -2664,12 +2665,12 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C101" s="4">
         <v>375368469</v>
@@ -2683,10 +2684,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C102" s="4">
         <v>127848341</v>
@@ -2700,10 +2701,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C103" s="4">
         <v>423577655</v>
@@ -2715,12 +2716,12 @@
         <v>-5.5E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C104" s="4">
         <v>268353285</v>
@@ -2732,12 +2733,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C105" s="4">
         <v>500000</v>
@@ -2751,10 +2752,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C106" s="4">
         <v>4261539</v>
@@ -2766,12 +2767,12 @@
         <v>-0.79300000000000004</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C107" s="4">
         <v>499511</v>
@@ -2783,12 +2784,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C108" s="4">
         <v>1519572</v>
@@ -2802,10 +2803,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C109" s="4">
         <v>0</v>
@@ -2819,10 +2820,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C110" s="4">
         <v>599441</v>
@@ -2836,10 +2837,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C111" s="4">
         <v>160501</v>
@@ -2851,12 +2852,12 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C112" s="4">
         <v>100000</v>
@@ -2870,10 +2871,10 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C113" s="4">
         <v>-13855</v>
@@ -2887,10 +2888,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C114" s="4">
         <v>0</v>
@@ -2902,12 +2903,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C115" s="4">
         <v>2344980</v>
@@ -2921,10 +2922,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C116" s="4">
         <v>418914</v>
@@ -2938,10 +2939,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C117" s="4">
         <v>399573</v>
@@ -2953,12 +2954,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C118" s="4">
         <v>8003995</v>
@@ -2970,12 +2971,12 @@
         <v>0.14099999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C119" s="4">
         <v>1383875</v>
@@ -2987,12 +2988,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C120" s="4">
         <v>931389</v>
@@ -3006,10 +3007,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C121" s="4">
         <v>0</v>
@@ -3021,12 +3022,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C122" s="4">
         <v>1719750</v>
@@ -3040,10 +3041,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C123" s="4">
         <v>1027088</v>
@@ -3057,10 +3058,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C124" s="4">
         <v>313849</v>
@@ -3072,12 +3073,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C125" s="4">
         <v>979953</v>

--- a/DataFiles_Excel/MultiAgencyRecipientTreeMap/RecipientsMultiAgency508table.xlsx
+++ b/DataFiles_Excel/MultiAgencyRecipientTreeMap/RecipientsMultiAgency508table.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Engineering Projects\Annual Report\2016-html2excel\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\2016 Annual Report\TaggsAR2016-master\DataFiles_Excel\MultiAgencyRecipientTreeMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="RecipientsMultiAgency508table" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -156,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
@@ -1040,7 +1041,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1089,390 +1092,408 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4">
-        <v>49192325</v>
+        <v>299409</v>
       </c>
       <c r="D7" s="4">
-        <v>48242941</v>
+        <v>99632</v>
       </c>
       <c r="E7" s="5">
-        <v>-1.9E-2</v>
+        <v>-0.66720000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4">
-        <v>612225083</v>
+        <v>1560347</v>
       </c>
       <c r="D8" s="4">
-        <v>725511404</v>
+        <v>999926</v>
       </c>
       <c r="E8" s="5">
-        <v>0.185</v>
+        <v>-0.35920000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4">
-        <v>87144359</v>
+        <v>1320735</v>
       </c>
       <c r="D9" s="4">
-        <v>95748378</v>
+        <v>1350300</v>
       </c>
       <c r="E9" s="5">
-        <v>9.9000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+        <v>2.24E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>396248523</v>
+        <v>275000</v>
       </c>
       <c r="D10" s="4">
-        <v>403039987</v>
+        <v>275000</v>
       </c>
       <c r="E10" s="5">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4">
-        <v>623807045</v>
+        <v>3812439</v>
       </c>
       <c r="D11" s="4">
-        <v>660761822</v>
+        <v>1074154</v>
       </c>
       <c r="E11" s="5">
-        <v>5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+        <v>-0.71830000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4">
-        <v>111731746</v>
+        <v>20800</v>
       </c>
       <c r="D12" s="4">
-        <v>120218641</v>
+        <v>26499</v>
       </c>
       <c r="E12" s="5">
-        <v>7.5999999999999998E-2</v>
+        <v>0.27400000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4">
-        <v>481307819</v>
+        <v>2241170</v>
       </c>
       <c r="D13" s="4">
-        <v>502771970</v>
+        <v>3189463</v>
       </c>
       <c r="E13" s="5">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+        <v>0.42309999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4">
-        <v>407224362</v>
+        <v>36817445</v>
       </c>
       <c r="D14" s="4">
-        <v>437554577</v>
+        <v>39726923</v>
       </c>
       <c r="E14" s="5">
-        <v>7.3999999999999996E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4">
-        <v>143921134</v>
+        <v>500000</v>
       </c>
       <c r="D15" s="4">
-        <v>158054411</v>
+        <v>500000</v>
       </c>
       <c r="E15" s="5">
-        <v>9.8000000000000004E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4">
-        <v>510290231</v>
+        <v>2344980</v>
       </c>
       <c r="D16" s="4">
-        <v>517008496</v>
+        <v>1001044</v>
       </c>
       <c r="E16" s="5">
-        <v>1.2999999999999999E-2</v>
+        <v>-0.57310000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C17" s="4">
-        <v>287944527</v>
+        <v>49192325</v>
       </c>
       <c r="D17" s="4">
-        <v>300128763</v>
+        <v>48242941</v>
       </c>
       <c r="E17" s="5">
-        <v>4.2000000000000003E-2</v>
+        <v>-1.4500000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>299409</v>
+        <v>396000</v>
       </c>
       <c r="D18" s="4">
-        <v>99632</v>
+        <v>198000</v>
       </c>
       <c r="E18" s="5">
-        <v>-0.66700000000000004</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4">
-        <v>1200000</v>
+        <v>5073607</v>
       </c>
       <c r="D19" s="4">
-        <v>731618</v>
+        <v>6079048</v>
       </c>
       <c r="E19" s="5">
-        <v>-0.39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>0.19819999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C20" s="4">
-        <v>1433173</v>
+        <v>1440000</v>
       </c>
       <c r="D20" s="4">
-        <v>1432910</v>
+        <v>4589000</v>
       </c>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>3.1867999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4">
-        <v>301340</v>
+        <v>44402974</v>
       </c>
       <c r="D21" s="4">
-        <v>1124390</v>
+        <v>85749787</v>
       </c>
       <c r="E21" s="5">
-        <v>2.7309999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>0.93120000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>3097730</v>
       </c>
       <c r="D22" s="4">
-        <v>25000</v>
+        <v>1866790</v>
       </c>
       <c r="E22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>-0.39739999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4">
-        <v>247258</v>
+        <v>1703365</v>
       </c>
       <c r="D23" s="4">
-        <v>249063</v>
+        <v>1708546</v>
       </c>
       <c r="E23" s="5">
-        <v>7.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C24" s="4">
-        <v>838678</v>
+        <v>8091945</v>
       </c>
       <c r="D24" s="4">
-        <v>839974</v>
+        <v>7586557</v>
       </c>
       <c r="E24" s="5">
-        <v>2E-3</v>
+        <v>-6.25E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C25" s="4">
-        <v>1560347</v>
+        <v>543352864</v>
       </c>
       <c r="D25" s="4">
-        <v>999926</v>
+        <v>616254670</v>
       </c>
       <c r="E25" s="5">
-        <v>-0.35899999999999999</v>
+        <v>0.13420000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="4">
-        <v>396000</v>
+        <v>4261539</v>
       </c>
       <c r="D26" s="4">
-        <v>198000</v>
+        <v>880072</v>
       </c>
       <c r="E26" s="5">
-        <v>-0.5</v>
+        <v>-0.79349999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="4">
+        <v>-13855</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="4">
+        <v>418914</v>
+      </c>
+      <c r="D28" s="4">
+        <v>598934</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.42970000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="4">
+        <v>612225083</v>
+      </c>
+      <c r="D29" s="4">
+        <v>725511404</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="4">
-        <v>983592</v>
-      </c>
-      <c r="D27" s="4">
-        <v>40000</v>
-      </c>
-      <c r="E27" s="5">
-        <v>-0.95899999999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="4">
-        <v>963644</v>
-      </c>
-      <c r="D28" s="4">
-        <v>586999</v>
-      </c>
-      <c r="E28" s="5">
-        <v>-0.39100000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1778248</v>
-      </c>
-      <c r="D29" s="4">
-        <v>2024998</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0.13900000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C30" s="4">
-        <v>586186</v>
+        <v>1200000</v>
       </c>
       <c r="D30" s="4">
-        <v>796526</v>
+        <v>731618</v>
       </c>
       <c r="E30" s="5">
-        <v>0.35899999999999999</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1480,203 +1501,201 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C31" s="4">
-        <v>3881234</v>
+        <v>983592</v>
       </c>
       <c r="D31" s="4">
-        <v>1469946</v>
+        <v>40000</v>
       </c>
       <c r="E31" s="5">
-        <v>-0.621</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>-0.95899999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C32" s="4">
-        <v>545919</v>
+        <v>928307</v>
       </c>
       <c r="D32" s="4">
-        <v>547000</v>
+        <v>-5656</v>
       </c>
       <c r="E32" s="5">
-        <v>2E-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C33" s="4">
-        <v>0</v>
+        <v>1913791</v>
       </c>
       <c r="D33" s="4">
-        <v>-21921</v>
+        <v>1700471</v>
       </c>
       <c r="E33" s="5">
-        <v>0</v>
+        <v>-0.111</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C34" s="4">
-        <v>8777763</v>
+        <v>677941</v>
       </c>
       <c r="D34" s="4">
-        <v>4544675</v>
+        <v>537916</v>
       </c>
       <c r="E34" s="5">
-        <v>-0.48199999999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>-0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C35" s="4">
-        <v>3731145</v>
+        <v>250000</v>
       </c>
       <c r="D35" s="4">
-        <v>2669092</v>
+        <v>350000</v>
       </c>
       <c r="E35" s="5">
-        <v>-0.28499999999999998</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C36" s="4">
-        <v>1320735</v>
+        <v>5817789</v>
       </c>
       <c r="D36" s="4">
-        <v>1350300</v>
+        <v>7906929</v>
       </c>
       <c r="E36" s="5">
-        <v>2.1999999999999999E-2</v>
+        <v>0.35899999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C37" s="4">
-        <v>5073607</v>
+        <v>198682</v>
       </c>
       <c r="D37" s="4">
-        <v>6079048</v>
+        <v>0</v>
       </c>
       <c r="E37" s="5">
-        <v>0.19800000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="4">
-        <v>928307</v>
+        <v>74774684</v>
       </c>
       <c r="D38" s="4">
-        <v>-5656</v>
+        <v>84087527</v>
       </c>
       <c r="E38" s="5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>0.1245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" s="4">
-        <v>908761</v>
+        <v>399573</v>
       </c>
       <c r="D39" s="4">
-        <v>1491511</v>
+        <v>399573</v>
       </c>
       <c r="E39" s="5">
-        <v>0.64100000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C40" s="4">
-        <v>3064837</v>
+        <v>87144359</v>
       </c>
       <c r="D40" s="4">
-        <v>4028510</v>
+        <v>95748378</v>
       </c>
       <c r="E40" s="5">
-        <v>0.314</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C41" s="4">
-        <v>0</v>
+        <v>1433173</v>
       </c>
       <c r="D41" s="4">
-        <v>47864</v>
+        <v>1432910</v>
       </c>
       <c r="E41" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C42" s="4">
-        <v>9289200</v>
+        <v>963644</v>
       </c>
       <c r="D42" s="4">
-        <v>5625038</v>
+        <v>586999</v>
       </c>
       <c r="E42" s="5">
-        <v>-0.39400000000000002</v>
+        <v>-0.39090000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
@@ -1684,203 +1703,201 @@
         <v>32</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C43" s="4">
-        <v>6674847</v>
+        <v>908761</v>
       </c>
       <c r="D43" s="4">
-        <v>10139592</v>
+        <v>1491511</v>
       </c>
       <c r="E43" s="5">
-        <v>0.51900000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.64129999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C44" s="4">
-        <v>564119</v>
+        <v>3747205</v>
       </c>
       <c r="D44" s="4">
-        <v>541951</v>
+        <v>2691007</v>
       </c>
       <c r="E44" s="5">
-        <v>-3.9E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-0.28189999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C45" s="4">
-        <v>4520046</v>
+        <v>0</v>
       </c>
       <c r="D45" s="4">
-        <v>3797713</v>
+        <v>-91677</v>
       </c>
       <c r="E45" s="5">
-        <v>-0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C46" s="4">
-        <v>5054430</v>
+        <v>1413028</v>
       </c>
       <c r="D46" s="4">
-        <v>3393362</v>
+        <v>0</v>
       </c>
       <c r="E46" s="5">
-        <v>-0.32900000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C47" s="4">
-        <v>1130506</v>
+        <v>8700132</v>
       </c>
       <c r="D47" s="4">
-        <v>1900000</v>
+        <v>8690941</v>
       </c>
       <c r="E47" s="5">
-        <v>0.68100000000000005</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C48" s="4">
-        <v>1440000</v>
+        <v>370579074</v>
       </c>
       <c r="D48" s="4">
-        <v>4589000</v>
+        <v>378608844</v>
       </c>
       <c r="E48" s="5">
-        <v>2.1869999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.1700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C49" s="4">
-        <v>275000</v>
+        <v>499511</v>
       </c>
       <c r="D49" s="4">
-        <v>275000</v>
+        <v>499709</v>
       </c>
       <c r="E49" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C50" s="4">
-        <v>44402974</v>
+        <v>8003995</v>
       </c>
       <c r="D50" s="4">
-        <v>85749787</v>
+        <v>9129743</v>
       </c>
       <c r="E50" s="5">
-        <v>0.93100000000000005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>0.1406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C51" s="4">
-        <v>1913791</v>
+        <v>396248523</v>
       </c>
       <c r="D51" s="4">
-        <v>1700471</v>
+        <v>403039987</v>
       </c>
       <c r="E51" s="5">
-        <v>-0.111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>1.7100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C52" s="4">
-        <v>3747205</v>
+        <v>301340</v>
       </c>
       <c r="D52" s="4">
-        <v>2691007</v>
+        <v>1124390</v>
       </c>
       <c r="E52" s="5">
-        <v>-0.28199999999999997</v>
+        <v>2.7309999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="4">
-        <v>28949541</v>
+        <v>1778248</v>
       </c>
       <c r="D53" s="4">
-        <v>46519883</v>
+        <v>2024998</v>
       </c>
       <c r="E53" s="5">
-        <v>0.60699999999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>0.13880000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C54" s="4">
-        <v>8799843</v>
+        <v>3064837</v>
       </c>
       <c r="D54" s="4">
-        <v>10090350</v>
+        <v>4028510</v>
       </c>
       <c r="E54" s="5">
-        <v>0.14699999999999999</v>
+        <v>0.31440000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1888,203 +1905,201 @@
         <v>35</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C55" s="4">
-        <v>9207507</v>
+        <v>28949541</v>
       </c>
       <c r="D55" s="4">
-        <v>9446756</v>
+        <v>46519883</v>
       </c>
       <c r="E55" s="5">
-        <v>2.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>0.6069</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C56" s="4">
-        <v>8897386</v>
+        <v>3535059</v>
       </c>
       <c r="D56" s="4">
-        <v>9525518</v>
+        <v>3734742</v>
       </c>
       <c r="E56" s="5">
-        <v>7.0999999999999994E-2</v>
+        <v>5.6500000000000002E-2</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C57" s="4">
-        <v>5370772</v>
+        <v>3368214</v>
       </c>
       <c r="D57" s="4">
-        <v>3222450</v>
+        <v>3940416</v>
       </c>
       <c r="E57" s="5">
-        <v>-0.4</v>
+        <v>0.1699</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C58" s="4">
-        <v>31835181</v>
+        <v>20501772</v>
       </c>
       <c r="D58" s="4">
-        <v>61795782</v>
+        <v>19688906</v>
       </c>
       <c r="E58" s="5">
-        <v>0.94099999999999995</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>-3.9600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C59" s="4">
-        <v>2111017</v>
+        <v>559404587</v>
       </c>
       <c r="D59" s="4">
-        <v>2696682</v>
+        <v>576375917</v>
       </c>
       <c r="E59" s="5">
-        <v>0.27700000000000002</v>
+        <v>3.0300000000000001E-2</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C60" s="4">
-        <v>3812439</v>
+        <v>1519572</v>
       </c>
       <c r="D60" s="4">
-        <v>1074154</v>
+        <v>1912185</v>
       </c>
       <c r="E60" s="5">
-        <v>-0.71799999999999997</v>
+        <v>0.25840000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C61" s="4">
-        <v>3097730</v>
+        <v>1383875</v>
       </c>
       <c r="D61" s="4">
-        <v>1866790</v>
+        <v>1411875</v>
       </c>
       <c r="E61" s="5">
-        <v>-0.39700000000000002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>2.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
       <c r="B62" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C62" s="4">
-        <v>677941</v>
+        <v>623807045</v>
       </c>
       <c r="D62" s="4">
-        <v>537916</v>
+        <v>660761822</v>
       </c>
       <c r="E62" s="5">
-        <v>-0.20699999999999999</v>
+        <v>5.9200000000000003E-2</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
       </c>
       <c r="D63" s="4">
-        <v>-91677</v>
+        <v>25000</v>
       </c>
       <c r="E63" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C64" s="4">
-        <v>3535059</v>
+        <v>586186</v>
       </c>
       <c r="D64" s="4">
-        <v>3734742</v>
+        <v>796526</v>
       </c>
       <c r="E64" s="5">
-        <v>5.6000000000000001E-2</v>
+        <v>0.35880000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C65" s="4">
-        <v>700307</v>
+        <v>0</v>
       </c>
       <c r="D65" s="4">
-        <v>530784</v>
+        <v>47864</v>
       </c>
       <c r="E65" s="5">
-        <v>-0.24199999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C66" s="4">
-        <v>3678619</v>
+        <v>8799843</v>
       </c>
       <c r="D66" s="4">
-        <v>2711231</v>
+        <v>10090350</v>
       </c>
       <c r="E66" s="5">
-        <v>-0.26300000000000001</v>
+        <v>0.1467</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
@@ -2092,455 +2107,449 @@
         <v>36</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C67" s="4">
-        <v>1684598</v>
+        <v>700307</v>
       </c>
       <c r="D67" s="4">
-        <v>1104189</v>
+        <v>530784</v>
       </c>
       <c r="E67" s="5">
-        <v>-0.34499999999999997</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-0.24210000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C68" s="4">
-        <v>5479501</v>
+        <v>1119433</v>
       </c>
       <c r="D68" s="4">
-        <v>9919102</v>
+        <v>4425424</v>
       </c>
       <c r="E68" s="5">
-        <v>0.81</v>
+        <v>2.9533</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C69" s="4">
-        <v>997863</v>
+        <v>7048556</v>
       </c>
       <c r="D69" s="4">
-        <v>998960</v>
+        <v>7243226</v>
       </c>
       <c r="E69" s="5">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.76E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C70" s="4">
-        <v>20800</v>
+        <v>92546032</v>
       </c>
       <c r="D70" s="4">
-        <v>26499</v>
+        <v>96082286</v>
       </c>
       <c r="E70" s="5">
-        <v>0.27400000000000002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3.8199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C71" s="4">
-        <v>1703365</v>
+        <v>931389</v>
       </c>
       <c r="D71" s="4">
-        <v>1708546</v>
+        <v>977181</v>
       </c>
       <c r="E71" s="5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>4.9200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
       <c r="B72" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C72" s="4">
-        <v>250000</v>
+        <v>111731746</v>
       </c>
       <c r="D72" s="4">
-        <v>350000</v>
+        <v>120218641</v>
       </c>
       <c r="E72" s="5">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C73" s="4">
-        <v>1413028</v>
+        <v>3881234</v>
       </c>
       <c r="D73" s="4">
-        <v>0</v>
+        <v>1469946</v>
       </c>
       <c r="E73" s="5">
-        <v>-1</v>
+        <v>-0.62129999999999996</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C74" s="4">
-        <v>3368214</v>
+        <v>9289200</v>
       </c>
       <c r="D74" s="4">
-        <v>3940416</v>
+        <v>5625038</v>
       </c>
       <c r="E74" s="5">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>-0.39450000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C75" s="4">
-        <v>1119433</v>
+        <v>9207507</v>
       </c>
       <c r="D75" s="4">
-        <v>4425424</v>
+        <v>9446756</v>
       </c>
       <c r="E75" s="5">
-        <v>2.9529999999999998</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C76" s="4">
-        <v>861876</v>
+        <v>3678619</v>
       </c>
       <c r="D76" s="4">
-        <v>1138482</v>
+        <v>2711231</v>
       </c>
       <c r="E76" s="5">
-        <v>0.32100000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>-0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C77" s="4">
-        <v>490943</v>
+        <v>861876</v>
       </c>
       <c r="D77" s="4">
-        <v>888921</v>
+        <v>1138482</v>
       </c>
       <c r="E77" s="5">
-        <v>0.81100000000000005</v>
+        <v>0.32090000000000002</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C78" s="4">
-        <v>450000</v>
+        <v>6452804</v>
       </c>
       <c r="D78" s="4">
-        <v>450000</v>
+        <v>1918858</v>
       </c>
       <c r="E78" s="5">
-        <v>0</v>
+        <v>-0.7026</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C79" s="4">
-        <v>49880</v>
+        <v>447936579</v>
       </c>
       <c r="D79" s="4">
-        <v>424680</v>
+        <v>479792542</v>
       </c>
       <c r="E79" s="5">
-        <v>7.5140000000000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>7.1099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C80" s="4">
-        <v>261385</v>
+        <v>0</v>
       </c>
       <c r="D80" s="4">
-        <v>142068</v>
+        <v>567117</v>
       </c>
       <c r="E80" s="5">
-        <v>-0.45600000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C81" s="4">
-        <v>2241170</v>
+        <v>0</v>
       </c>
       <c r="D81" s="4">
-        <v>3189463</v>
+        <v>102000</v>
       </c>
       <c r="E81" s="5">
-        <v>0.42299999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="A82" s="2"/>
       <c r="B82" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C82" s="4">
-        <v>8091945</v>
+        <v>481307819</v>
       </c>
       <c r="D82" s="4">
-        <v>7586557</v>
+        <v>502771970</v>
       </c>
       <c r="E82" s="5">
-        <v>-6.2E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.4600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C83" s="4">
-        <v>5817789</v>
+        <v>247258</v>
       </c>
       <c r="D83" s="4">
-        <v>7906929</v>
+        <v>249063</v>
       </c>
       <c r="E83" s="5">
-        <v>0.35899999999999999</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C84" s="4">
-        <v>8700132</v>
+        <v>545919</v>
       </c>
       <c r="D84" s="4">
-        <v>8690941</v>
+        <v>547000</v>
       </c>
       <c r="E84" s="5">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C85" s="4">
-        <v>20501772</v>
+        <v>6674847</v>
       </c>
       <c r="D85" s="4">
-        <v>19688906</v>
+        <v>10139592</v>
       </c>
       <c r="E85" s="5">
-        <v>-0.04</v>
+        <v>0.51910000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C86" s="4">
-        <v>7048556</v>
+        <v>8897386</v>
       </c>
       <c r="D86" s="4">
-        <v>7243226</v>
+        <v>9525518</v>
       </c>
       <c r="E86" s="5">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.0599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C87" s="4">
-        <v>6452804</v>
+        <v>1684598</v>
       </c>
       <c r="D87" s="4">
-        <v>1918858</v>
+        <v>1104189</v>
       </c>
       <c r="E87" s="5">
-        <v>-0.70299999999999996</v>
+        <v>-0.34449999999999997</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C88" s="4">
-        <v>11595192</v>
+        <v>490943</v>
       </c>
       <c r="D88" s="4">
-        <v>10539700</v>
+        <v>888921</v>
       </c>
       <c r="E88" s="5">
-        <v>-9.0999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.81059999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C89" s="4">
-        <v>8061373</v>
+        <v>11595192</v>
       </c>
       <c r="D89" s="4">
-        <v>7477751</v>
+        <v>10539700</v>
       </c>
       <c r="E89" s="5">
-        <v>-7.1999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C90" s="4">
-        <v>34737177</v>
+        <v>375368469</v>
       </c>
       <c r="D90" s="4">
-        <v>34793371</v>
+        <v>404436399</v>
       </c>
       <c r="E90" s="5">
-        <v>2E-3</v>
+        <v>7.7399999999999997E-2</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C91" s="4">
-        <v>5026261</v>
+        <v>1719750</v>
       </c>
       <c r="D91" s="4">
-        <v>5300734</v>
+        <v>124195</v>
       </c>
       <c r="E91" s="5">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>39</v>
-      </c>
+        <v>-0.92779999999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
       <c r="B92" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C92" s="4">
-        <v>198682</v>
+        <v>407224362</v>
       </c>
       <c r="D92" s="4">
+        <v>437554577</v>
+      </c>
+      <c r="E92" s="5">
+        <v>7.4499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93" s="4">
         <v>0</v>
       </c>
-      <c r="E92" s="5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C93" s="4">
-        <v>198682</v>
-      </c>
       <c r="D93" s="4">
-        <v>198682</v>
+        <v>-21921</v>
       </c>
       <c r="E93" s="5">
         <v>0</v>
@@ -2548,70 +2557,70 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C94" s="4">
-        <v>36817445</v>
+        <v>564119</v>
       </c>
       <c r="D94" s="4">
-        <v>39726923</v>
+        <v>541951</v>
       </c>
       <c r="E94" s="5">
-        <v>7.9000000000000001E-2</v>
+        <v>-3.9300000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C95" s="4">
-        <v>543352864</v>
+        <v>5370772</v>
       </c>
       <c r="D95" s="4">
-        <v>616254670</v>
+        <v>3222450</v>
       </c>
       <c r="E95" s="5">
-        <v>0.13400000000000001</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C96" s="4">
-        <v>74774684</v>
+        <v>450000</v>
       </c>
       <c r="D96" s="4">
-        <v>84087527</v>
+        <v>450000</v>
       </c>
       <c r="E96" s="5">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C97" s="4">
-        <v>370579074</v>
+        <v>8061373</v>
       </c>
       <c r="D97" s="4">
-        <v>378608844</v>
+        <v>7477751</v>
       </c>
       <c r="E97" s="5">
-        <v>2.1999999999999999E-2</v>
+        <v>-7.2400000000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2619,220 +2628,218 @@
         <v>40</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C98" s="4">
-        <v>559404587</v>
+        <v>127848341</v>
       </c>
       <c r="D98" s="4">
-        <v>576375917</v>
+        <v>144053026</v>
       </c>
       <c r="E98" s="5">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>0.12670000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C99" s="4">
-        <v>92546032</v>
+        <v>599441</v>
       </c>
       <c r="D99" s="4">
-        <v>96082286</v>
+        <v>300000</v>
       </c>
       <c r="E99" s="5">
-        <v>3.7999999999999999E-2</v>
+        <v>-0.4995</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C100" s="4">
-        <v>447936579</v>
+        <v>0</v>
       </c>
       <c r="D100" s="4">
-        <v>479792542</v>
+        <v>404110</v>
       </c>
       <c r="E100" s="5">
-        <v>7.0999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C101" s="4">
-        <v>375368469</v>
+        <v>1027088</v>
       </c>
       <c r="D101" s="4">
-        <v>404436399</v>
+        <v>1627044</v>
       </c>
       <c r="E101" s="5">
-        <v>7.6999999999999999E-2</v>
+        <v>0.58409999999999995</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>40</v>
-      </c>
+      <c r="A102" s="2"/>
       <c r="B102" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C102" s="4">
-        <v>127848341</v>
+        <v>143921134</v>
       </c>
       <c r="D102" s="4">
-        <v>144053026</v>
+        <v>158054411</v>
       </c>
       <c r="E102" s="5">
-        <v>0.127</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C103" s="4">
-        <v>423577655</v>
+        <v>838678</v>
       </c>
       <c r="D103" s="4">
-        <v>400416050</v>
+        <v>839974</v>
       </c>
       <c r="E103" s="5">
-        <v>-5.5E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C104" s="4">
-        <v>268353285</v>
+        <v>8777763</v>
       </c>
       <c r="D104" s="4">
-        <v>281749238</v>
+        <v>4544675</v>
       </c>
       <c r="E104" s="5">
-        <v>0.05</v>
+        <v>-0.48230000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C105" s="4">
-        <v>500000</v>
+        <v>4520046</v>
       </c>
       <c r="D105" s="4">
-        <v>500000</v>
+        <v>3797713</v>
       </c>
       <c r="E105" s="5">
-        <v>0</v>
+        <v>-0.1598</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C106" s="4">
-        <v>4261539</v>
+        <v>31835181</v>
       </c>
       <c r="D106" s="4">
-        <v>880072</v>
+        <v>61795782</v>
       </c>
       <c r="E106" s="5">
-        <v>-0.79300000000000004</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+        <v>0.94110000000000005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C107" s="4">
-        <v>499511</v>
+        <v>5479501</v>
       </c>
       <c r="D107" s="4">
-        <v>499709</v>
+        <v>9919102</v>
       </c>
       <c r="E107" s="5">
-        <v>0</v>
+        <v>0.81020000000000003</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C108" s="4">
-        <v>1519572</v>
+        <v>49880</v>
       </c>
       <c r="D108" s="4">
-        <v>1912185</v>
+        <v>424680</v>
       </c>
       <c r="E108" s="5">
-        <v>0.25800000000000001</v>
+        <v>7.5140000000000002</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C109" s="4">
-        <v>0</v>
+        <v>34737177</v>
       </c>
       <c r="D109" s="4">
-        <v>567117</v>
+        <v>34793371</v>
       </c>
       <c r="E109" s="5">
-        <v>1</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C110" s="4">
-        <v>599441</v>
+        <v>423577655</v>
       </c>
       <c r="D110" s="4">
-        <v>300000</v>
+        <v>400416050</v>
       </c>
       <c r="E110" s="5">
-        <v>-0.5</v>
+        <v>-5.4699999999999999E-2</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -2852,245 +2859,244 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C112" s="4">
+        <v>313849</v>
+      </c>
+      <c r="D112" s="4">
+        <v>313927</v>
+      </c>
+      <c r="E112" s="5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+      <c r="B113" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" s="4">
+        <v>510290231</v>
+      </c>
+      <c r="D113" s="4">
+        <v>517008496</v>
+      </c>
+      <c r="E113" s="5">
+        <v>1.32E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C112" s="4">
-        <v>100000</v>
-      </c>
-      <c r="D112" s="4">
-        <v>0</v>
-      </c>
-      <c r="E112" s="5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C113" s="4">
-        <v>-13855</v>
-      </c>
-      <c r="D113" s="4">
-        <v>0</v>
-      </c>
-      <c r="E113" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="C114" s="4">
-        <v>0</v>
+        <v>3731145</v>
       </c>
       <c r="D114" s="4">
-        <v>404110</v>
+        <v>2669092</v>
       </c>
       <c r="E114" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-0.28460000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C115" s="4">
-        <v>2344980</v>
+        <v>5054430</v>
       </c>
       <c r="D115" s="4">
-        <v>1001044</v>
+        <v>3393362</v>
       </c>
       <c r="E115" s="5">
-        <v>-0.57299999999999995</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-0.3286</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C116" s="4">
-        <v>418914</v>
+        <v>1130506</v>
       </c>
       <c r="D116" s="4">
-        <v>598934</v>
+        <v>1900000</v>
       </c>
       <c r="E116" s="5">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.68069999999999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C117" s="4">
-        <v>399573</v>
+        <v>2111017</v>
       </c>
       <c r="D117" s="4">
-        <v>399573</v>
+        <v>2696682</v>
       </c>
       <c r="E117" s="5">
-        <v>0</v>
+        <v>0.27739999999999998</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C118" s="4">
-        <v>8003995</v>
+        <v>997863</v>
       </c>
       <c r="D118" s="4">
-        <v>9129743</v>
+        <v>998960</v>
       </c>
       <c r="E118" s="5">
-        <v>0.14099999999999999</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C119" s="4">
-        <v>1383875</v>
+        <v>261385</v>
       </c>
       <c r="D119" s="4">
-        <v>1411875</v>
+        <v>142068</v>
       </c>
       <c r="E119" s="5">
-        <v>0.02</v>
+        <v>-0.45650000000000002</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C120" s="4">
-        <v>931389</v>
+        <v>5026261</v>
       </c>
       <c r="D120" s="4">
-        <v>977181</v>
+        <v>5300734</v>
       </c>
       <c r="E120" s="5">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.4600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C121" s="4">
+        <v>198682</v>
+      </c>
+      <c r="D121" s="4">
+        <v>198682</v>
+      </c>
+      <c r="E121" s="5">
         <v>0</v>
-      </c>
-      <c r="D121" s="4">
-        <v>102000</v>
-      </c>
-      <c r="E121" s="5">
-        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C122" s="4">
-        <v>1719750</v>
+        <v>268353285</v>
       </c>
       <c r="D122" s="4">
-        <v>124195</v>
+        <v>281749238</v>
       </c>
       <c r="E122" s="5">
-        <v>-0.92800000000000005</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.99E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C123" s="4">
-        <v>1027088</v>
+        <v>100000</v>
       </c>
       <c r="D123" s="4">
-        <v>1627044</v>
+        <v>0</v>
       </c>
       <c r="E123" s="5">
-        <v>0.58399999999999996</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C124" s="4">
-        <v>313849</v>
+        <v>979953</v>
       </c>
       <c r="D124" s="4">
-        <v>313927</v>
+        <v>1079945</v>
       </c>
       <c r="E124" s="5">
-        <v>0</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A125" s="2"/>
       <c r="B125" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C125" s="4">
-        <v>979953</v>
+        <v>287944527</v>
       </c>
       <c r="D125" s="4">
-        <v>1079945</v>
+        <v>300128763</v>
       </c>
       <c r="E125" s="5">
-        <v>0.10199999999999999</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A7:E125">
+    <sortCondition ref="B7:B125"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A3:E3"/>

--- a/DataFiles_Excel/MultiAgencyRecipientTreeMap/RecipientsMultiAgency508table.xlsx
+++ b/DataFiles_Excel/MultiAgencyRecipientTreeMap/RecipientsMultiAgency508table.xlsx
@@ -15,7 +15,6 @@
     <sheet name="RecipientsMultiAgency508table" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1041,8 +1040,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,7 +1273,7 @@
         <v>48242941</v>
       </c>
       <c r="E17" s="5">
-        <v>-1.4500000000000001E-2</v>
+        <v>-1.9199999999999998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1863,7 +1862,7 @@
         <v>1124390</v>
       </c>
       <c r="E52" s="5">
-        <v>2.7309999999999999</v>
+        <v>3.7313000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3090,7 +3089,7 @@
         <v>300128763</v>
       </c>
       <c r="E125" s="5">
-        <v>4.2000000000000003E-2</v>
+        <v>4.2299999999999997E-2</v>
       </c>
     </row>
   </sheetData>
